--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il1rn-Il1r1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il1rn-Il1r1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>384.589279</v>
+        <v>0.014855</v>
       </c>
       <c r="H2">
-        <v>1153.767837</v>
+        <v>0.044565</v>
       </c>
       <c r="I2">
-        <v>0.9999688655894136</v>
+        <v>0.5536850213696453</v>
       </c>
       <c r="J2">
-        <v>0.9999688655894137</v>
+        <v>0.5536850213696451</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.23954733333333</v>
+        <v>6.382924</v>
       </c>
       <c r="N2">
-        <v>30.718642</v>
+        <v>19.148772</v>
       </c>
       <c r="O2">
-        <v>0.2020379585860964</v>
+        <v>0.1363153751023214</v>
       </c>
       <c r="P2">
-        <v>0.2020379585860964</v>
+        <v>0.1363153751023214</v>
       </c>
       <c r="Q2">
-        <v>3938.020126213039</v>
+        <v>0.09481833602</v>
       </c>
       <c r="R2">
-        <v>35442.18113591736</v>
+        <v>0.85336502418</v>
       </c>
       <c r="S2">
-        <v>0.2020316682533397</v>
+        <v>0.07547578137654003</v>
       </c>
       <c r="T2">
-        <v>0.2020316682533397</v>
+        <v>0.07547578137654003</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>384.589279</v>
+        <v>0.014855</v>
       </c>
       <c r="H3">
-        <v>1153.767837</v>
+        <v>0.044565</v>
       </c>
       <c r="I3">
-        <v>0.9999688655894136</v>
+        <v>0.5536850213696453</v>
       </c>
       <c r="J3">
-        <v>0.9999688655894137</v>
+        <v>0.5536850213696451</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>88.018812</v>
       </c>
       <c r="O3">
-        <v>0.5789038816772371</v>
+        <v>0.6265841681043937</v>
       </c>
       <c r="P3">
-        <v>0.5789038816772369</v>
+        <v>0.6265841681043938</v>
       </c>
       <c r="Q3">
-        <v>11283.69714850552</v>
+        <v>0.43583981742</v>
       </c>
       <c r="R3">
-        <v>101553.2743365496</v>
+        <v>3.92255835678</v>
       </c>
       <c r="S3">
-        <v>0.5788858578460948</v>
+        <v>0.3469302685067626</v>
       </c>
       <c r="T3">
-        <v>0.5788858578460948</v>
+        <v>0.3469302685067626</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>384.589279</v>
+        <v>0.014855</v>
       </c>
       <c r="H4">
-        <v>1153.767837</v>
+        <v>0.044565</v>
       </c>
       <c r="I4">
-        <v>0.9999688655894136</v>
+        <v>0.5536850213696453</v>
       </c>
       <c r="J4">
-        <v>0.9999688655894137</v>
+        <v>0.5536850213696451</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>33.30646</v>
       </c>
       <c r="O4">
-        <v>0.2190581597366666</v>
+        <v>0.2371004567932849</v>
       </c>
       <c r="P4">
-        <v>0.2190581597366666</v>
+        <v>0.2371004567932849</v>
       </c>
       <c r="Q4">
-        <v>4269.769145814113</v>
+        <v>0.1649224877666667</v>
       </c>
       <c r="R4">
-        <v>38427.92231232703</v>
+        <v>1.4843023899</v>
       </c>
       <c r="S4">
-        <v>0.2190513394899791</v>
+        <v>0.1312789714863426</v>
       </c>
       <c r="T4">
-        <v>0.2190513394899791</v>
+        <v>0.1312789714863426</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.01197433333333334</v>
+        <v>0.01197433333333333</v>
       </c>
       <c r="H5">
         <v>0.035923</v>
       </c>
       <c r="I5">
-        <v>3.113441058642416E-05</v>
+        <v>0.4463149786303549</v>
       </c>
       <c r="J5">
-        <v>3.113441058642416E-05</v>
+        <v>0.4463149786303548</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.23954733333333</v>
+        <v>6.382924</v>
       </c>
       <c r="N5">
-        <v>30.718642</v>
+        <v>19.148772</v>
       </c>
       <c r="O5">
-        <v>0.2020379585860964</v>
+        <v>0.1363153751023214</v>
       </c>
       <c r="P5">
-        <v>0.2020379585860964</v>
+        <v>0.1363153751023214</v>
       </c>
       <c r="Q5">
-        <v>0.1226117529517778</v>
+        <v>0.07643125961733332</v>
       </c>
       <c r="R5">
-        <v>1.103505776566</v>
+        <v>0.6878813365559999</v>
       </c>
       <c r="S5">
-        <v>6.290332756662484E-06</v>
+        <v>0.06083959372578138</v>
       </c>
       <c r="T5">
-        <v>6.290332756662486E-06</v>
+        <v>0.06083959372578138</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.01197433333333334</v>
+        <v>0.01197433333333333</v>
       </c>
       <c r="H6">
         <v>0.035923</v>
       </c>
       <c r="I6">
-        <v>3.113441058642416E-05</v>
+        <v>0.4463149786303549</v>
       </c>
       <c r="J6">
-        <v>3.113441058642416E-05</v>
+        <v>0.4463149786303548</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>88.018812</v>
       </c>
       <c r="O6">
-        <v>0.5789038816772371</v>
+        <v>0.6265841681043937</v>
       </c>
       <c r="P6">
-        <v>0.5789038816772369</v>
+        <v>0.6265841681043938</v>
       </c>
       <c r="Q6">
-        <v>0.351322198164</v>
+        <v>0.3513221981639999</v>
       </c>
       <c r="R6">
         <v>3.161899783476</v>
       </c>
       <c r="S6">
-        <v>1.802383114221381E-05</v>
+        <v>0.2796538995976312</v>
       </c>
       <c r="T6">
-        <v>1.802383114221381E-05</v>
+        <v>0.2796538995976312</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.01197433333333334</v>
+        <v>0.01197433333333333</v>
       </c>
       <c r="H7">
         <v>0.035923</v>
       </c>
       <c r="I7">
-        <v>3.113441058642416E-05</v>
+        <v>0.4463149786303549</v>
       </c>
       <c r="J7">
-        <v>3.113441058642416E-05</v>
+        <v>0.4463149786303548</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>33.30646</v>
       </c>
       <c r="O7">
-        <v>0.2190581597366666</v>
+        <v>0.2371004567932849</v>
       </c>
       <c r="P7">
-        <v>0.2190581597366666</v>
+        <v>0.2371004567932849</v>
       </c>
       <c r="Q7">
         <v>0.1329408847311111</v>
@@ -880,10 +880,10 @@
         <v>1.19646796258</v>
       </c>
       <c r="S7">
-        <v>6.820246687547869E-06</v>
+        <v>0.1058214853069423</v>
       </c>
       <c r="T7">
-        <v>6.820246687547869E-06</v>
+        <v>0.1058214853069423</v>
       </c>
     </row>
   </sheetData>
